--- a/input/indicators/TB DAK_indicators.xlsx
+++ b/input/indicators/TB DAK_indicators.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/DigitalAcceleratorKits/Shared Documents/TB DAK/Files sent to editors/Round 2/Files received and reviewed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rawlanir\Documents\WHO\Github\smart-dak-tb\input\indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3618" documentId="13_ncr:1_{44B3710B-533E-6F48-94E8-58C1EC4D30F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2787AC44-37BC-4BBA-A477-08A4D88E8780}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDDB526-C38B-48B3-B624-E489273510DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="20" r:id="rId1"/>
@@ -2347,15 +2347,15 @@
 Indicators table</t>
   </si>
   <si>
-    <t xml:space="preserve">smart.who.int/dak/tb/v1.0.0/TB DAK_indicators.xlsx
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>If there are any other notes or information, it should be added here. This should include any additional information that does not fit into the other columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAFT
 © World Health Organization 2024. Some rights reserved. This work is available under the
 </t>
-  </si>
-  <si>
-    <t>Annotations</t>
-  </si>
-  <si>
-    <t>If there are any other notes or information, it should be added here. This should include any additional information that does not fit into the other columns</t>
   </si>
 </sst>
 </file>
@@ -2937,19 +2937,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2959,6 +2947,24 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3001,12 +3007,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -7096,9 +7096,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7136,7 +7136,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7242,7 +7242,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7384,7 +7384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7397,184 +7397,181 @@
   </sheetPr>
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="1" customFormat="1" ht="14.5">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+    <row r="1" spans="2:4" s="1" customFormat="1" ht="14.4">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="14.5">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="14.4">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="14.5">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="14.4">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="2:4" s="1" customFormat="1" ht="14.5">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="14.4">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" ht="14.5">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="14.4">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="2:4" s="1" customFormat="1" ht="14.5">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="14.4">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="14.5">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="14.4">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
-    <row r="8" spans="2:4" s="1" customFormat="1" ht="14.5">
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="14.4">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="2:4" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1">
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="2:4" s="8" customFormat="1" ht="15.5" thickTop="1" thickBot="1">
+    <row r="12" spans="2:4" s="8" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" s="8" customFormat="1" ht="15.5" thickTop="1" thickBot="1">
+    <row r="13" spans="2:4" s="8" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="2:4" s="8" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="2:4" s="8" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="2:4" s="8" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="2:4" s="8" customFormat="1" ht="35.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="33"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="2:4" s="8" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="2:4" s="8" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B20" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="C20" s="55" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" s="56"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="2:4" s="8" customFormat="1" ht="59.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="37"/>
     </row>
-    <row r="22" spans="2:4" s="8" customFormat="1" ht="14.5" thickTop="1"/>
+    <row r="22" spans="2:4" s="8" customFormat="1" ht="14.4" thickTop="1"/>
     <row r="23" spans="2:4" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B23" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="C23" s="35"/>
+      <c r="B23" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C23" s="39"/>
       <c r="D23" s="12" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B1:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="C14:D14"/>
@@ -7584,6 +7581,11 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B1:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D23" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/3.0/igo" xr:uid="{F004B8AB-8561-41EA-A9D0-54532C1E0698}"/>
@@ -7605,51 +7607,51 @@
       <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" customWidth="1"/>
-    <col min="4" max="6" width="45.7265625" customWidth="1"/>
-    <col min="7" max="7" width="45.7265625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="205.7265625" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="6" width="45.77734375" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="205.77734375" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="14.5">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="J1" s="51" t="s">
+      <c r="I1" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" s="53" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" s="21" customFormat="1" ht="14.5">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="14.4">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
@@ -7662,24 +7664,24 @@
       <c r="G2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="51"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11" s="16" customFormat="1" ht="14.5">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:11" s="16" customFormat="1" ht="14.4">
+      <c r="A3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" s="16" customFormat="1" ht="76.5" customHeight="1">
@@ -7742,7 +7744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" ht="58">
+    <row r="6" spans="1:11" s="16" customFormat="1" ht="57.6">
       <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
@@ -7772,7 +7774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" ht="87">
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="86.4">
       <c r="A7" s="18" t="s">
         <v>53</v>
       </c>
@@ -7802,7 +7804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="87">
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="86.4">
       <c r="A8" s="18" t="s">
         <v>59</v>
       </c>
@@ -7832,35 +7834,35 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="14.5">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="14.4">
+      <c r="A9" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="14.5">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="14.4">
+      <c r="A10" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="27"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="72.5">
+    <row r="11" spans="1:11" s="16" customFormat="1" ht="72">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
@@ -7890,7 +7892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="87">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="86.4">
       <c r="A12" s="18" t="s">
         <v>70</v>
       </c>
@@ -7920,21 +7922,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="14.5">
-      <c r="A13" s="52" t="s">
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="14.4">
+      <c r="A13" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="27"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="101.5">
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="100.8">
       <c r="A14" s="18" t="s">
         <v>76</v>
       </c>
@@ -8062,7 +8064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="16" customFormat="1" ht="145">
+    <row r="18" spans="1:10" s="16" customFormat="1" ht="144">
       <c r="A18" s="18" t="s">
         <v>99</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="16" customFormat="1" ht="101.5">
+    <row r="21" spans="1:10" s="16" customFormat="1" ht="86.4">
       <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
@@ -8248,21 +8250,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="16" customFormat="1" ht="32.5" customHeight="1">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:10" s="16" customFormat="1" ht="32.549999999999997" customHeight="1">
+      <c r="A24" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:10" s="16" customFormat="1" ht="145">
+    <row r="25" spans="1:10" s="16" customFormat="1" ht="129.6">
       <c r="A25" s="18" t="s">
         <v>128</v>
       </c>
@@ -8294,7 +8296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="16" customFormat="1" ht="159.5">
+    <row r="26" spans="1:10" s="16" customFormat="1" ht="158.4">
       <c r="A26" s="18" t="s">
         <v>129</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="16" customFormat="1" ht="159.5">
+    <row r="27" spans="1:10" s="16" customFormat="1" ht="158.4">
       <c r="A27" s="18" t="s">
         <v>130</v>
       </c>
@@ -8416,7 +8418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="16" customFormat="1" ht="174">
+    <row r="30" spans="1:10" s="16" customFormat="1" ht="172.8">
       <c r="A30" s="18" t="s">
         <v>133</v>
       </c>
@@ -8446,7 +8448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="16" customFormat="1" ht="174">
+    <row r="31" spans="1:10" s="16" customFormat="1" ht="158.4">
       <c r="A31" s="18" t="s">
         <v>134</v>
       </c>
@@ -8536,21 +8538,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="16" customFormat="1" ht="31" customHeight="1">
-      <c r="A34" s="52" t="s">
+    <row r="34" spans="1:10" s="16" customFormat="1" ht="31.05" customHeight="1">
+      <c r="A34" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
       <c r="I34" s="27"/>
       <c r="J34" s="31"/>
     </row>
-    <row r="35" spans="1:10" s="16" customFormat="1" ht="145">
+    <row r="35" spans="1:10" s="16" customFormat="1" ht="129.6">
       <c r="A35" s="18" t="s">
         <v>137</v>
       </c>
@@ -8582,7 +8584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="16" customFormat="1" ht="159.5">
+    <row r="36" spans="1:10" s="16" customFormat="1" ht="158.4">
       <c r="A36" s="18" t="s">
         <v>138</v>
       </c>
@@ -8614,7 +8616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="16" customFormat="1" ht="159.5">
+    <row r="37" spans="1:10" s="16" customFormat="1" ht="158.4">
       <c r="A37" s="18" t="s">
         <v>139</v>
       </c>
@@ -8644,7 +8646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="16" customFormat="1" ht="188.5">
+    <row r="38" spans="1:10" s="16" customFormat="1" ht="187.2">
       <c r="A38" s="18" t="s">
         <v>140</v>
       </c>
@@ -8704,19 +8706,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="17" customFormat="1" ht="14.5">
-      <c r="A40" s="48" t="s">
+    <row r="40" spans="1:10" s="17" customFormat="1" ht="14.4">
+      <c r="A40" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
     </row>
     <row r="41" spans="1:10" s="17" customFormat="1" ht="346.5" customHeight="1">
       <c r="A41" s="18" t="s">
@@ -8814,7 +8816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="17" customFormat="1" ht="304.5">
+    <row r="44" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
       <c r="A44" s="18" t="s">
         <v>156</v>
       </c>
@@ -8846,7 +8848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="17" customFormat="1" ht="304.5">
+    <row r="45" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
       <c r="A45" s="18" t="s">
         <v>160</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="17" customFormat="1" ht="304.5">
+    <row r="46" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
       <c r="A46" s="18" t="s">
         <v>163</v>
       </c>
@@ -8910,7 +8912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="17" customFormat="1" ht="304.5">
+    <row r="47" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
       <c r="A47" s="18" t="s">
         <v>166</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="17" customFormat="1" ht="304.5">
+    <row r="48" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
       <c r="A48" s="18" t="s">
         <v>168</v>
       </c>
@@ -8974,7 +8976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="17" customFormat="1" ht="304.5">
+    <row r="49" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
       <c r="A49" s="18" t="s">
         <v>170</v>
       </c>
@@ -9006,7 +9008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="17" customFormat="1" ht="304.5">
+    <row r="50" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
       <c r="A50" s="18" t="s">
         <v>172</v>
       </c>
@@ -9038,7 +9040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="17" customFormat="1" ht="203">
+    <row r="51" spans="1:10" s="17" customFormat="1" ht="187.2">
       <c r="A51" s="18" t="s">
         <v>174</v>
       </c>
@@ -9070,7 +9072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="17" customFormat="1" ht="217.5">
+    <row r="52" spans="1:10" s="17" customFormat="1" ht="216">
       <c r="A52" s="18" t="s">
         <v>178</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="17" customFormat="1" ht="217.5">
+    <row r="53" spans="1:10" s="17" customFormat="1" ht="216">
       <c r="A53" s="18" t="s">
         <v>181</v>
       </c>
@@ -9134,7 +9136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="17" customFormat="1" ht="217.5">
+    <row r="54" spans="1:10" s="17" customFormat="1" ht="216">
       <c r="A54" s="18" t="s">
         <v>183</v>
       </c>
@@ -9166,7 +9168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="17" customFormat="1" ht="203">
+    <row r="55" spans="1:10" s="17" customFormat="1" ht="201.6">
       <c r="A55" s="18" t="s">
         <v>186</v>
       </c>
@@ -9198,7 +9200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="17" customFormat="1" ht="203">
+    <row r="56" spans="1:10" s="17" customFormat="1" ht="201.6">
       <c r="A56" s="18" t="s">
         <v>189</v>
       </c>
@@ -9230,7 +9232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="17" customFormat="1" ht="203">
+    <row r="57" spans="1:10" s="17" customFormat="1" ht="201.6">
       <c r="A57" s="18" t="s">
         <v>192</v>
       </c>
@@ -9262,19 +9264,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="17" customFormat="1" ht="14.5">
-      <c r="A58" s="48" t="s">
+    <row r="58" spans="1:10" s="17" customFormat="1" ht="14.4">
+      <c r="A58" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
     </row>
     <row r="59" spans="1:10" s="29" customFormat="1" ht="225.75" customHeight="1">
       <c r="A59" s="18" t="s">
@@ -9306,7 +9308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="28" customFormat="1" ht="232">
+    <row r="60" spans="1:10" s="28" customFormat="1" ht="230.4">
       <c r="A60" s="18" t="s">
         <v>202</v>
       </c>
@@ -9338,7 +9340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="28" customFormat="1" ht="217.5">
+    <row r="61" spans="1:10" s="28" customFormat="1" ht="216">
       <c r="A61" s="18" t="s">
         <v>208</v>
       </c>
@@ -9404,14 +9406,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" customWidth="1"/>
-    <col min="2" max="2" width="78.7265625" customWidth="1"/>
-    <col min="3" max="3" width="61.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="78.77734375" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" s="9" t="s">
         <v>214</v>
       </c>
@@ -9464,15 +9466,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A6DDC313EDC9A43B330D8B6305883A5" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cd72ae978b041cce60a7f3915616b23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73389989-ac93-4f39-a9f3-2949bbf25fcc" xmlns:ns3="51983ca6-de84-41fa-9a65-1d08ee1009bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06feec49f89f385c2251a29dc25202a7" ns2:_="" ns3:_="">
     <xsd:import namespace="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
@@ -9721,6 +9714,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5128250D-9B2C-4D86-9D99-709881CA8B0F}">
   <ds:schemaRefs>
@@ -9739,14 +9741,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3641399-1C83-4230-9FA0-63883702B763}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3959E245-4B35-4E6D-A339-28B8D0A0757F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9765,6 +9759,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3641399-1C83-4230-9FA0-63883702B763}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f610c0b7-bd24-4b39-810b-3dc280afb590}" enabled="0" method="" siteId="{f610c0b7-bd24-4b39-810b-3dc280afb590}" removed="1"/>

--- a/input/indicators/TB DAK_indicators.xlsx
+++ b/input/indicators/TB DAK_indicators.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rawlanir\Documents\WHO\Github\smart-dak-tb\input\indicators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WHO\GitHub\smart-dak-tb\input\indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDDB526-C38B-48B3-B624-E489273510DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A02363-6D0B-41C4-8FAC-B807A17B9B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13860" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="20" r:id="rId1"/>
@@ -2353,7 +2353,7 @@
     <t>If there are any other notes or information, it should be added here. This should include any additional information that does not fit into the other columns</t>
   </si>
   <si>
-    <t xml:space="preserve">DRAFT
+    <t xml:space="preserve">https://smart.who.int/dak-tb/v1.0.0/TB DAK_indicators.xlsx
 © World Health Organization 2024. Some rights reserved. This work is available under the
 </t>
   </si>
@@ -2937,7 +2937,25 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2947,24 +2965,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7096,9 +7096,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7136,7 +7136,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7242,7 +7242,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7384,7 +7384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7397,181 +7397,184 @@
   </sheetPr>
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="1" customFormat="1" ht="14.4">
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+    <row r="1" spans="2:4" s="1" customFormat="1" ht="14.5">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="14.4">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="14.5">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="14.4">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="14.5">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
-    <row r="4" spans="2:4" s="1" customFormat="1" ht="14.4">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="14.5">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" ht="14.4">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="14.5">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="2:4" s="1" customFormat="1" ht="14.4">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="14.5">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
     </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="14.4">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="14.5">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
     </row>
-    <row r="8" spans="2:4" s="1" customFormat="1" ht="14.4">
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="14.5">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="2:4" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="2:4" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1">
       <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="2:4" s="8" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="2:4" s="8" customFormat="1" ht="15.5" thickTop="1" thickBot="1">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="36"/>
     </row>
-    <row r="13" spans="2:4" s="8" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="2:4" s="8" customFormat="1" ht="15.5" thickTop="1" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="2:4" s="8" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="2:4" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="2:4" s="8" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="2:4" s="8" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="2:4" s="8" customFormat="1" ht="35.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="2:4" s="8" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="2:4" s="8" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B20" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="2:4" s="8" customFormat="1" ht="59.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="33"/>
     </row>
-    <row r="22" spans="2:4" s="8" customFormat="1" ht="14.4" thickTop="1"/>
+    <row r="22" spans="2:4" s="8" customFormat="1" ht="14.5" thickTop="1"/>
     <row r="23" spans="2:4" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="12" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B1:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="C14:D14"/>
@@ -7581,11 +7584,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B1:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D23" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/3.0/igo" xr:uid="{F004B8AB-8561-41EA-A9D0-54532C1E0698}"/>
@@ -7601,25 +7599,25 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="6" width="45.77734375" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="205.77734375" customWidth="1"/>
-    <col min="9" max="9" width="31.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="6" width="45.81640625" customWidth="1"/>
+    <col min="7" max="7" width="45.81640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="205.81640625" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="14.4">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="14.5">
       <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
@@ -7648,7 +7646,7 @@
       </c>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" s="21" customFormat="1" ht="14.4">
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="14.5">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -7669,7 +7667,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11" s="16" customFormat="1" ht="14.4">
+    <row r="3" spans="1:11" s="16" customFormat="1" ht="14.5">
       <c r="A3" s="50" t="s">
         <v>30</v>
       </c>
@@ -7744,7 +7742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" ht="57.6">
+    <row r="6" spans="1:11" s="16" customFormat="1" ht="58">
       <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
@@ -7774,7 +7772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" ht="86.4">
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="87">
       <c r="A7" s="18" t="s">
         <v>53</v>
       </c>
@@ -7804,7 +7802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="86.4">
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="87">
       <c r="A8" s="18" t="s">
         <v>59</v>
       </c>
@@ -7834,7 +7832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="14.4">
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="14.5">
       <c r="A9" s="50" t="s">
         <v>63</v>
       </c>
@@ -7848,7 +7846,7 @@
       <c r="I9" s="50"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="14.4">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="14.5">
       <c r="A10" s="54" t="s">
         <v>64</v>
       </c>
@@ -7862,7 +7860,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="72">
+    <row r="11" spans="1:11" s="16" customFormat="1" ht="72.5">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
@@ -7892,7 +7890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="86.4">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="87">
       <c r="A12" s="18" t="s">
         <v>70</v>
       </c>
@@ -7922,7 +7920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="14.4">
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="14.5">
       <c r="A13" s="54" t="s">
         <v>75</v>
       </c>
@@ -7936,7 +7934,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="100.8">
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="101.5">
       <c r="A14" s="18" t="s">
         <v>76</v>
       </c>
@@ -8064,7 +8062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="16" customFormat="1" ht="144">
+    <row r="18" spans="1:10" s="16" customFormat="1" ht="145">
       <c r="A18" s="18" t="s">
         <v>99</v>
       </c>
@@ -8156,7 +8154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="16" customFormat="1" ht="86.4">
+    <row r="21" spans="1:10" s="16" customFormat="1" ht="101.5">
       <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
@@ -8250,7 +8248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="16" customFormat="1" ht="32.549999999999997" customHeight="1">
+    <row r="24" spans="1:10" s="16" customFormat="1" ht="32.5" customHeight="1">
       <c r="A24" s="43" t="s">
         <v>307</v>
       </c>
@@ -8264,7 +8262,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:10" s="16" customFormat="1" ht="129.6">
+    <row r="25" spans="1:10" s="16" customFormat="1" ht="145">
       <c r="A25" s="18" t="s">
         <v>128</v>
       </c>
@@ -8296,7 +8294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="16" customFormat="1" ht="158.4">
+    <row r="26" spans="1:10" s="16" customFormat="1" ht="159.5">
       <c r="A26" s="18" t="s">
         <v>129</v>
       </c>
@@ -8328,7 +8326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="16" customFormat="1" ht="158.4">
+    <row r="27" spans="1:10" s="16" customFormat="1" ht="159.5">
       <c r="A27" s="18" t="s">
         <v>130</v>
       </c>
@@ -8418,7 +8416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="16" customFormat="1" ht="172.8">
+    <row r="30" spans="1:10" s="16" customFormat="1" ht="174">
       <c r="A30" s="18" t="s">
         <v>133</v>
       </c>
@@ -8448,7 +8446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="16" customFormat="1" ht="158.4">
+    <row r="31" spans="1:10" s="16" customFormat="1" ht="174">
       <c r="A31" s="18" t="s">
         <v>134</v>
       </c>
@@ -8538,7 +8536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="16" customFormat="1" ht="31.05" customHeight="1">
+    <row r="34" spans="1:10" s="16" customFormat="1" ht="31" customHeight="1">
       <c r="A34" s="54" t="s">
         <v>308</v>
       </c>
@@ -8552,7 +8550,7 @@
       <c r="I34" s="27"/>
       <c r="J34" s="31"/>
     </row>
-    <row r="35" spans="1:10" s="16" customFormat="1" ht="129.6">
+    <row r="35" spans="1:10" s="16" customFormat="1" ht="145">
       <c r="A35" s="18" t="s">
         <v>137</v>
       </c>
@@ -8584,7 +8582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="16" customFormat="1" ht="158.4">
+    <row r="36" spans="1:10" s="16" customFormat="1" ht="159.5">
       <c r="A36" s="18" t="s">
         <v>138</v>
       </c>
@@ -8616,7 +8614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="16" customFormat="1" ht="158.4">
+    <row r="37" spans="1:10" s="16" customFormat="1" ht="159.5">
       <c r="A37" s="18" t="s">
         <v>139</v>
       </c>
@@ -8646,7 +8644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="16" customFormat="1" ht="187.2">
+    <row r="38" spans="1:10" s="16" customFormat="1" ht="188.5">
       <c r="A38" s="18" t="s">
         <v>140</v>
       </c>
@@ -8706,7 +8704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="17" customFormat="1" ht="14.4">
+    <row r="40" spans="1:10" s="17" customFormat="1" ht="14.5">
       <c r="A40" s="50" t="s">
         <v>142</v>
       </c>
@@ -8816,7 +8814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
+    <row r="44" spans="1:10" s="17" customFormat="1" ht="304.5">
       <c r="A44" s="18" t="s">
         <v>156</v>
       </c>
@@ -8848,7 +8846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
+    <row r="45" spans="1:10" s="17" customFormat="1" ht="304.5">
       <c r="A45" s="18" t="s">
         <v>160</v>
       </c>
@@ -8880,7 +8878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
+    <row r="46" spans="1:10" s="17" customFormat="1" ht="304.5">
       <c r="A46" s="18" t="s">
         <v>163</v>
       </c>
@@ -8912,7 +8910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
+    <row r="47" spans="1:10" s="17" customFormat="1" ht="304.5">
       <c r="A47" s="18" t="s">
         <v>166</v>
       </c>
@@ -8944,7 +8942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
+    <row r="48" spans="1:10" s="17" customFormat="1" ht="304.5">
       <c r="A48" s="18" t="s">
         <v>168</v>
       </c>
@@ -8976,7 +8974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
+    <row r="49" spans="1:10" s="17" customFormat="1" ht="304.5">
       <c r="A49" s="18" t="s">
         <v>170</v>
       </c>
@@ -9008,7 +9006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="17" customFormat="1" ht="302.39999999999998">
+    <row r="50" spans="1:10" s="17" customFormat="1" ht="304.5">
       <c r="A50" s="18" t="s">
         <v>172</v>
       </c>
@@ -9040,7 +9038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="17" customFormat="1" ht="187.2">
+    <row r="51" spans="1:10" s="17" customFormat="1" ht="217.5">
       <c r="A51" s="18" t="s">
         <v>174</v>
       </c>
@@ -9072,7 +9070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="17" customFormat="1" ht="216">
+    <row r="52" spans="1:10" s="17" customFormat="1" ht="232">
       <c r="A52" s="18" t="s">
         <v>178</v>
       </c>
@@ -9104,7 +9102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="17" customFormat="1" ht="216">
+    <row r="53" spans="1:10" s="17" customFormat="1" ht="232">
       <c r="A53" s="18" t="s">
         <v>181</v>
       </c>
@@ -9136,7 +9134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="17" customFormat="1" ht="216">
+    <row r="54" spans="1:10" s="17" customFormat="1" ht="232">
       <c r="A54" s="18" t="s">
         <v>183</v>
       </c>
@@ -9168,7 +9166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="17" customFormat="1" ht="201.6">
+    <row r="55" spans="1:10" s="17" customFormat="1" ht="217.5">
       <c r="A55" s="18" t="s">
         <v>186</v>
       </c>
@@ -9200,7 +9198,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="17" customFormat="1" ht="201.6">
+    <row r="56" spans="1:10" s="17" customFormat="1" ht="217.5">
       <c r="A56" s="18" t="s">
         <v>189</v>
       </c>
@@ -9232,7 +9230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="17" customFormat="1" ht="201.6">
+    <row r="57" spans="1:10" s="17" customFormat="1" ht="217.5">
       <c r="A57" s="18" t="s">
         <v>192</v>
       </c>
@@ -9264,7 +9262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="17" customFormat="1" ht="14.4">
+    <row r="58" spans="1:10" s="17" customFormat="1" ht="14.5">
       <c r="A58" s="50" t="s">
         <v>195</v>
       </c>
@@ -9308,7 +9306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="28" customFormat="1" ht="230.4">
+    <row r="60" spans="1:10" s="28" customFormat="1" ht="232">
       <c r="A60" s="18" t="s">
         <v>202</v>
       </c>
@@ -9340,7 +9338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="28" customFormat="1" ht="216">
+    <row r="61" spans="1:10" s="28" customFormat="1" ht="217.5">
       <c r="A61" s="18" t="s">
         <v>208</v>
       </c>
@@ -9406,14 +9404,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="78.77734375" customWidth="1"/>
-    <col min="3" max="3" width="61.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="2" width="78.81640625" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="15.5">
       <c r="A1" s="9" t="s">
         <v>214</v>
       </c>
@@ -9448,21 +9446,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
-    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
-      <UserInfo>
-        <DisplayName>LALLI, Marek</DisplayName>
-        <AccountId>196</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9715,27 +9704,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
+    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
+      <UserInfo>
+        <DisplayName>LALLI, Marek</DisplayName>
+        <AccountId>196</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5128250D-9B2C-4D86-9D99-709881CA8B0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3641399-1C83-4230-9FA0-63883702B763}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9760,9 +9749,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3641399-1C83-4230-9FA0-63883702B763}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5128250D-9B2C-4D86-9D99-709881CA8B0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
+    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
